--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H2">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J2">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.020618</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N2">
-        <v>0.061854</v>
+        <v>0.212791</v>
       </c>
       <c r="O2">
-        <v>0.000162696127394745</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P2">
-        <v>0.0001626961273947449</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q2">
-        <v>0.01296956046533333</v>
+        <v>0.1317290487836667</v>
       </c>
       <c r="R2">
-        <v>0.116726044188</v>
+        <v>1.185561439053</v>
       </c>
       <c r="S2">
-        <v>3.933693748782678E-07</v>
+        <v>5.621639866099973E-06</v>
       </c>
       <c r="T2">
-        <v>3.933693748782677E-07</v>
+        <v>5.621639866099975E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H3">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J3">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>32.34376366666667</v>
+        <v>0.020618</v>
       </c>
       <c r="N3">
-        <v>97.031291</v>
+        <v>0.061854</v>
       </c>
       <c r="O3">
-        <v>0.2552238380995986</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P3">
-        <v>0.2552238380995985</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q3">
-        <v>20.34554265938911</v>
+        <v>0.03829094549800001</v>
       </c>
       <c r="R3">
-        <v>183.109883934502</v>
+        <v>0.344618509482</v>
       </c>
       <c r="S3">
-        <v>0.0006170843968749198</v>
+        <v>1.634095954611557E-06</v>
       </c>
       <c r="T3">
-        <v>0.0006170843968749197</v>
+        <v>1.634095954611557E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H4">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J4">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01197066666666667</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N4">
-        <v>0.035912</v>
+        <v>40.825186</v>
       </c>
       <c r="O4">
-        <v>9.446023421282504E-05</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P4">
-        <v>9.446023421282504E-05</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q4">
-        <v>0.007530036140444445</v>
+        <v>25.27298108564867</v>
       </c>
       <c r="R4">
-        <v>0.06777032526399999</v>
+        <v>227.456829770838</v>
       </c>
       <c r="S4">
-        <v>2.283875091445719E-07</v>
+        <v>0.001078544173195983</v>
       </c>
       <c r="T4">
-        <v>2.283875091445719E-07</v>
+        <v>0.001078544173195984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H5">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J5">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>40.17406266666666</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N5">
-        <v>120.522188</v>
+        <v>0.015536</v>
       </c>
       <c r="O5">
-        <v>0.3170125335910596</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P5">
-        <v>0.3170125335910596</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q5">
-        <v>25.27111916254844</v>
+        <v>0.009617617765333335</v>
       </c>
       <c r="R5">
-        <v>227.440072462936</v>
+        <v>0.086558559888</v>
       </c>
       <c r="S5">
-        <v>0.0007664781219083818</v>
+        <v>4.104393370007621E-07</v>
       </c>
       <c r="T5">
-        <v>0.0007664781219083818</v>
+        <v>4.104393370007622E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6290406666666667</v>
+        <v>1.857161</v>
       </c>
       <c r="H6">
-        <v>1.887122</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J6">
-        <v>0.002417816460522425</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.17663333333333</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N6">
-        <v>162.5299</v>
+        <v>177.633358</v>
       </c>
       <c r="O6">
-        <v>0.4275064719477343</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P6">
-        <v>0.4275064719477343</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q6">
-        <v>34.07930554975556</v>
+        <v>109.9645815922127</v>
       </c>
       <c r="R6">
-        <v>306.7137499478</v>
+        <v>989.681234329914</v>
       </c>
       <c r="S6">
-        <v>0.0010336321848551</v>
+        <v>0.004692824258930164</v>
       </c>
       <c r="T6">
-        <v>0.0010336321848551</v>
+        <v>0.004692824258930165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.87880433333333</v>
+        <v>1.857161</v>
       </c>
       <c r="H7">
-        <v>248.636413</v>
+        <v>5.571483000000001</v>
       </c>
       <c r="I7">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="J7">
-        <v>0.3185576830944962</v>
+        <v>0.006673232049902625</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.020618</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N7">
-        <v>0.061854</v>
+        <v>33.847271</v>
       </c>
       <c r="O7">
-        <v>0.000162696127394745</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P7">
-        <v>0.0001626961273947449</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q7">
-        <v>1.708795187744667</v>
+        <v>20.95327721921034</v>
       </c>
       <c r="R7">
-        <v>15.379156689702</v>
+        <v>188.579494972893</v>
       </c>
       <c r="S7">
-        <v>5.182810139131695E-05</v>
+        <v>0.0008941974426187645</v>
       </c>
       <c r="T7">
-        <v>5.182810139131694E-05</v>
+        <v>0.0008941974426187646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J8">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.34376366666667</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N8">
-        <v>97.031291</v>
+        <v>0.212791</v>
       </c>
       <c r="O8">
-        <v>0.2552238380995986</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P8">
-        <v>0.2552238380995985</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q8">
-        <v>2680.612460333243</v>
+        <v>5.878621217631444</v>
       </c>
       <c r="R8">
-        <v>24125.51214299918</v>
+        <v>52.907590958683</v>
       </c>
       <c r="S8">
-        <v>0.08130351453549292</v>
+        <v>0.0002508747440286361</v>
       </c>
       <c r="T8">
-        <v>0.08130351453549291</v>
+        <v>0.0002508747440286361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J9">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01197066666666667</v>
+        <v>0.020618</v>
       </c>
       <c r="N9">
-        <v>0.035912</v>
+        <v>0.061854</v>
       </c>
       <c r="O9">
-        <v>9.446023421282504E-05</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P9">
-        <v>9.446023421282504E-05</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q9">
-        <v>0.9921145404062222</v>
+        <v>1.708795187744667</v>
       </c>
       <c r="R9">
-        <v>8.929030863655999</v>
+        <v>15.379156689702</v>
       </c>
       <c r="S9">
-        <v>3.0091033355401E-05</v>
+        <v>7.292416698613784E-05</v>
       </c>
       <c r="T9">
-        <v>3.0091033355401E-05</v>
+        <v>7.292416698613784E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>248.636413</v>
       </c>
       <c r="I10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J10">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.17406266666666</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N10">
-        <v>120.522188</v>
+        <v>40.825186</v>
       </c>
       <c r="O10">
-        <v>0.3170125335910596</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P10">
-        <v>0.3170125335910596</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q10">
-        <v>3329.578279025738</v>
+        <v>1127.84753412198</v>
       </c>
       <c r="R10">
-        <v>29966.20451123164</v>
+        <v>10150.62780709782</v>
       </c>
       <c r="S10">
-        <v>0.1009867782126841</v>
+        <v>0.04813177290238524</v>
       </c>
       <c r="T10">
-        <v>0.1009867782126841</v>
+        <v>0.04813177290238525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>248.636413</v>
       </c>
       <c r="I11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J11">
-        <v>0.3185576830944962</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>54.17663333333333</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N11">
-        <v>162.5299</v>
+        <v>0.015536</v>
       </c>
       <c r="O11">
-        <v>0.4275064719477343</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P11">
-        <v>0.4275064719477343</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q11">
-        <v>4490.094593472078</v>
+        <v>0.4292017013742222</v>
       </c>
       <c r="R11">
-        <v>40410.8513412487</v>
+        <v>3.862815312368</v>
       </c>
       <c r="S11">
-        <v>0.1361854712115725</v>
+        <v>1.831651725509486E-05</v>
       </c>
       <c r="T11">
-        <v>0.1361854712115725</v>
+        <v>1.831651725509486E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H12">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I12">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J12">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.020618</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N12">
-        <v>0.061854</v>
+        <v>177.633358</v>
       </c>
       <c r="O12">
-        <v>0.000162696127394745</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P12">
-        <v>0.0001626961273947449</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q12">
-        <v>0.8457612737946667</v>
+        <v>4907.346773584984</v>
       </c>
       <c r="R12">
-        <v>7.611851464152</v>
+        <v>44166.12096226485</v>
       </c>
       <c r="S12">
-        <v>2.565210937241309E-05</v>
+        <v>0.2094248498254018</v>
       </c>
       <c r="T12">
-        <v>2.565210937241309E-05</v>
+        <v>0.2094248498254018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.02052933333334</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H13">
-        <v>123.061588</v>
+        <v>248.636413</v>
       </c>
       <c r="I13">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="J13">
-        <v>0.1576688381166819</v>
+        <v>0.2978037409437354</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.34376366666667</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N13">
-        <v>97.031291</v>
+        <v>33.847271</v>
       </c>
       <c r="O13">
-        <v>0.2552238380995986</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P13">
-        <v>0.2552238380995985</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q13">
-        <v>1326.758306238901</v>
+        <v>935.0737834754359</v>
       </c>
       <c r="R13">
-        <v>11940.82475615011</v>
+        <v>8415.664051278924</v>
       </c>
       <c r="S13">
-        <v>0.04024084601284383</v>
+        <v>0.03990500278767841</v>
       </c>
       <c r="T13">
-        <v>0.04024084601284382</v>
+        <v>0.03990500278767842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H14">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J14">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01197066666666667</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N14">
-        <v>0.035912</v>
+        <v>0.212791</v>
       </c>
       <c r="O14">
-        <v>9.446023421282504E-05</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P14">
-        <v>9.446023421282504E-05</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q14">
-        <v>0.4910430831395556</v>
+        <v>4.238622609675111</v>
       </c>
       <c r="R14">
-        <v>4.419387748256</v>
+        <v>38.147603487076</v>
       </c>
       <c r="S14">
-        <v>1.489343537656577E-05</v>
+        <v>0.0001808865247257201</v>
       </c>
       <c r="T14">
-        <v>1.489343537656577E-05</v>
+        <v>0.0001808865247257201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H15">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J15">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>40.17406266666666</v>
+        <v>0.020618</v>
       </c>
       <c r="N15">
-        <v>120.522188</v>
+        <v>0.061854</v>
       </c>
       <c r="O15">
-        <v>0.3170125335910596</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P15">
-        <v>0.3170125335910596</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q15">
-        <v>1647.961316057172</v>
+        <v>1.232081069682667</v>
       </c>
       <c r="R15">
-        <v>14831.65184451454</v>
+        <v>11.088729627144</v>
       </c>
       <c r="S15">
-        <v>0.04998299783972794</v>
+        <v>5.258002030341833E-05</v>
       </c>
       <c r="T15">
-        <v>0.04998299783972794</v>
+        <v>5.258002030341834E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.02052933333334</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H16">
-        <v>123.061588</v>
+        <v>179.272636</v>
       </c>
       <c r="I16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J16">
-        <v>0.1576688381166819</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.17663333333333</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N16">
-        <v>162.5299</v>
+        <v>40.825186</v>
       </c>
       <c r="O16">
-        <v>0.4275064719477343</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P16">
-        <v>0.4275064719477343</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q16">
-        <v>2222.354176831245</v>
+        <v>813.2043010455885</v>
       </c>
       <c r="R16">
-        <v>20001.1875914812</v>
+        <v>7318.838709410296</v>
       </c>
       <c r="S16">
-        <v>0.06740444871936112</v>
+        <v>0.03470412760324037</v>
       </c>
       <c r="T16">
-        <v>0.06740444871936112</v>
+        <v>0.03470412760324038</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H17">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I17">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J17">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.020618</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N17">
-        <v>0.061854</v>
+        <v>0.015536</v>
       </c>
       <c r="O17">
-        <v>0.000162696127394745</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P17">
-        <v>0.0001626961273947449</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q17">
-        <v>0.008152267855333333</v>
+        <v>0.3094644080995556</v>
       </c>
       <c r="R17">
-        <v>0.07337041069799999</v>
+        <v>2.785179672896</v>
       </c>
       <c r="S17">
-        <v>2.47259922081735E-07</v>
+        <v>1.320663490532394E-05</v>
       </c>
       <c r="T17">
-        <v>2.472599220817349E-07</v>
+        <v>1.320663490532394E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H18">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I18">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J18">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.34376366666667</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N18">
-        <v>97.031291</v>
+        <v>177.633358</v>
       </c>
       <c r="O18">
-        <v>0.2552238380995986</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P18">
-        <v>0.2552238380995985</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q18">
-        <v>12.78858399749078</v>
+        <v>3538.311147799076</v>
       </c>
       <c r="R18">
-        <v>115.097255977417</v>
+        <v>31844.80033019169</v>
       </c>
       <c r="S18">
-        <v>0.000387880322245128</v>
+        <v>0.1510001870566879</v>
       </c>
       <c r="T18">
-        <v>0.0003878803222451279</v>
+        <v>0.151000187056688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3953956666666666</v>
+        <v>59.75754533333333</v>
       </c>
       <c r="H19">
-        <v>1.186187</v>
+        <v>179.272636</v>
       </c>
       <c r="I19">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="J19">
-        <v>0.001519765258344566</v>
+        <v>0.214723422870666</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01197066666666667</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N19">
-        <v>0.035912</v>
+        <v>33.847271</v>
       </c>
       <c r="O19">
-        <v>9.446023421282504E-05</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P19">
-        <v>9.446023421282504E-05</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q19">
-        <v>0.004733149727111111</v>
+        <v>674.2099437307062</v>
       </c>
       <c r="R19">
-        <v>0.04259834754399999</v>
+        <v>6067.889493576356</v>
       </c>
       <c r="S19">
-        <v>1.435573822517422E-07</v>
+        <v>0.02877243503080322</v>
       </c>
       <c r="T19">
-        <v>1.435573822517422E-07</v>
+        <v>0.02877243503080323</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H20">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J20">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>40.17406266666666</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N20">
-        <v>120.522188</v>
+        <v>0.212791</v>
       </c>
       <c r="O20">
-        <v>0.3170125335910596</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P20">
-        <v>0.3170125335910596</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q20">
-        <v>15.88465029079511</v>
+        <v>0.02620788335922222</v>
       </c>
       <c r="R20">
-        <v>142.961852617156</v>
+        <v>0.235870950233</v>
       </c>
       <c r="S20">
-        <v>0.0004817846350114819</v>
+        <v>1.118441856664872E-06</v>
       </c>
       <c r="T20">
-        <v>0.0004817846350114819</v>
+        <v>1.118441856664873E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3953956666666666</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H21">
-        <v>1.186187</v>
+        <v>1.108463</v>
       </c>
       <c r="I21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J21">
-        <v>0.001519765258344566</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>54.17663333333333</v>
+        <v>0.020618</v>
       </c>
       <c r="N21">
-        <v>162.5299</v>
+        <v>0.061854</v>
       </c>
       <c r="O21">
-        <v>0.4275064719477343</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P21">
-        <v>0.4275064719477343</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q21">
-        <v>21.42120605458889</v>
+        <v>0.007618096711333334</v>
       </c>
       <c r="R21">
-        <v>192.7908544913</v>
+        <v>0.068562870402</v>
       </c>
       <c r="S21">
-        <v>0.0006497094837836223</v>
+        <v>3.251082169929603E-07</v>
       </c>
       <c r="T21">
-        <v>0.0006497094837836222</v>
+        <v>3.251082169929603E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H22">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I22">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J22">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.020618</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N22">
-        <v>0.061854</v>
+        <v>40.825186</v>
       </c>
       <c r="O22">
-        <v>0.000162696127394745</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P22">
-        <v>0.0001626961273947449</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q22">
-        <v>2.166613018769334</v>
+        <v>5.028134238790889</v>
       </c>
       <c r="R22">
-        <v>19.499517168924</v>
+        <v>45.253208149118</v>
       </c>
       <c r="S22">
-        <v>6.571380819531147E-05</v>
+        <v>0.0002145795490811583</v>
       </c>
       <c r="T22">
-        <v>6.571380819531146E-05</v>
+        <v>0.0002145795490811583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H23">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I23">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J23">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>32.34376366666667</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N23">
-        <v>97.031291</v>
+        <v>0.015536</v>
       </c>
       <c r="O23">
-        <v>0.2552238380995986</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P23">
-        <v>0.2552238380995985</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q23">
-        <v>3398.798110204605</v>
+        <v>0.001913453463111111</v>
       </c>
       <c r="R23">
-        <v>30589.18299184144</v>
+        <v>0.017221081168</v>
       </c>
       <c r="S23">
-        <v>0.1030862296006314</v>
+        <v>8.165811845964094E-08</v>
       </c>
       <c r="T23">
-        <v>0.1030862296006313</v>
+        <v>8.165811845964095E-08</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H24">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I24">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J24">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.01197066666666667</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N24">
-        <v>0.035912</v>
+        <v>177.633358</v>
       </c>
       <c r="O24">
-        <v>9.446023421282504E-05</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P24">
-        <v>9.446023421282504E-05</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q24">
-        <v>1.257920372652444</v>
+        <v>21.87777832319489</v>
       </c>
       <c r="R24">
-        <v>11.321283353872</v>
+        <v>196.900004908754</v>
       </c>
       <c r="S24">
-        <v>3.815297765560878E-05</v>
+        <v>0.0009336512480656417</v>
       </c>
       <c r="T24">
-        <v>3.815297765560877E-05</v>
+        <v>0.0009336512480656418</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>105.0835686666667</v>
+        <v>0.3694876666666667</v>
       </c>
       <c r="H25">
-        <v>315.250706</v>
+        <v>1.108463</v>
       </c>
       <c r="I25">
-        <v>0.4039051773855191</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="J25">
-        <v>0.403905177385519</v>
+        <v>0.00132765922784494</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.17406266666666</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N25">
-        <v>120.522188</v>
+        <v>33.847271</v>
       </c>
       <c r="O25">
-        <v>0.3170125335910596</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P25">
-        <v>0.3170125335910596</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q25">
-        <v>4221.633872851636</v>
+        <v>4.168716394941444</v>
       </c>
       <c r="R25">
-        <v>37994.70485566473</v>
+        <v>37.518447554473</v>
       </c>
       <c r="S25">
-        <v>0.1280430036135297</v>
+        <v>0.0001779032225060228</v>
       </c>
       <c r="T25">
-        <v>0.1280430036135297</v>
+        <v>0.0001779032225060228</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>105.0835686666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H26">
-        <v>315.250706</v>
+        <v>383.5999</v>
       </c>
       <c r="I26">
-        <v>0.4039051773855191</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J26">
-        <v>0.403905177385519</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>54.17663333333333</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N26">
-        <v>162.5299</v>
+        <v>0.212791</v>
       </c>
       <c r="O26">
-        <v>0.4275064719477343</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P26">
-        <v>0.4275064719477343</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q26">
-        <v>5693.073969012155</v>
+        <v>9.069622924544444</v>
       </c>
       <c r="R26">
-        <v>51237.6657211094</v>
+        <v>81.6266063209</v>
       </c>
       <c r="S26">
-        <v>0.1726720773855071</v>
+        <v>0.0003870532298980294</v>
       </c>
       <c r="T26">
-        <v>0.172672077385507</v>
+        <v>0.0003870532298980295</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H27">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I27">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J27">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,27 +2117,27 @@
         <v>0.061854</v>
       </c>
       <c r="O27">
-        <v>0.000162696127394745</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P27">
-        <v>0.0001626961273947449</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q27">
-        <v>0.6218712227693334</v>
+        <v>2.636354246066666</v>
       </c>
       <c r="R27">
-        <v>5.596841004924</v>
+        <v>23.7271882146</v>
       </c>
       <c r="S27">
-        <v>1.886147913874347E-05</v>
+        <v>0.0001125084730186555</v>
       </c>
       <c r="T27">
-        <v>1.886147913874346E-05</v>
+        <v>0.0001125084730186555</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H28">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I28">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J28">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>32.34376366666667</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N28">
-        <v>97.031291</v>
+        <v>40.825186</v>
       </c>
       <c r="O28">
-        <v>0.2552238380995986</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P28">
-        <v>0.2552238380995985</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q28">
-        <v>975.5386487706052</v>
+        <v>1740.059696342378</v>
       </c>
       <c r="R28">
-        <v>8779.847838935446</v>
+        <v>15660.5372670814</v>
       </c>
       <c r="S28">
-        <v>0.02958828323151044</v>
+        <v>0.07425840426751043</v>
       </c>
       <c r="T28">
-        <v>0.02958828323151043</v>
+        <v>0.07425840426751044</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H29">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I29">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J29">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.01197066666666667</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N29">
-        <v>0.035912</v>
+        <v>0.015536</v>
       </c>
       <c r="O29">
-        <v>9.446023421282504E-05</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P29">
-        <v>9.446023421282504E-05</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q29">
-        <v>0.3610540846524444</v>
+        <v>0.6621786718222221</v>
       </c>
       <c r="R29">
-        <v>3.249486761872</v>
+        <v>5.9596080464</v>
       </c>
       <c r="S29">
-        <v>1.095084293385319E-05</v>
+        <v>2.825899112131521E-05</v>
       </c>
       <c r="T29">
-        <v>1.095084293385319E-05</v>
+        <v>2.825899112131521E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H30">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I30">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J30">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>40.17406266666666</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N30">
-        <v>120.522188</v>
+        <v>177.633358</v>
       </c>
       <c r="O30">
-        <v>0.3170125335910596</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P30">
-        <v>0.3170125335910596</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q30">
-        <v>1211.712749739636</v>
+        <v>7571.126485051577</v>
       </c>
       <c r="R30">
-        <v>10905.41474765673</v>
+        <v>68140.1383654642</v>
       </c>
       <c r="S30">
-        <v>0.03675149116819797</v>
+        <v>0.323103725963659</v>
       </c>
       <c r="T30">
-        <v>0.03675149116819797</v>
+        <v>0.323103725963659</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.16156866666667</v>
+        <v>127.8666333333333</v>
       </c>
       <c r="H31">
-        <v>90.484706</v>
+        <v>383.5999</v>
       </c>
       <c r="I31">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="J31">
-        <v>0.115930719684436</v>
+        <v>0.4594559737541049</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.17663333333333</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N31">
-        <v>162.5299</v>
+        <v>33.847271</v>
       </c>
       <c r="O31">
-        <v>0.4275064719477343</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P31">
-        <v>0.4275064719477343</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q31">
-        <v>1634.052246412156</v>
+        <v>1442.645530096989</v>
       </c>
       <c r="R31">
-        <v>14706.4702177094</v>
+        <v>12983.8097708729</v>
       </c>
       <c r="S31">
-        <v>0.04956113296265498</v>
+        <v>0.06156602282889739</v>
       </c>
       <c r="T31">
-        <v>0.04956113296265498</v>
+        <v>0.0615660228288974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H32">
+        <v>16.711339</v>
+      </c>
+      <c r="I32">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J32">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.07093033333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.212791</v>
+      </c>
+      <c r="O32">
+        <v>0.0008424163619759039</v>
+      </c>
+      <c r="P32">
+        <v>0.0008424163619759041</v>
+      </c>
+      <c r="Q32">
+        <v>0.3951136152387778</v>
+      </c>
+      <c r="R32">
+        <v>3.556022537149001</v>
+      </c>
+      <c r="S32">
+        <v>1.686178160075356E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.686178160075357E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H33">
+        <v>16.711339</v>
+      </c>
+      <c r="I33">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J33">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.020618</v>
+      </c>
+      <c r="N33">
+        <v>0.061854</v>
+      </c>
+      <c r="O33">
+        <v>0.00024487324019182</v>
+      </c>
+      <c r="P33">
+        <v>0.00024487324019182</v>
+      </c>
+      <c r="Q33">
+        <v>0.1148514625006667</v>
+      </c>
+      <c r="R33">
+        <v>1.033663162506</v>
+      </c>
+      <c r="S33">
+        <v>4.901375712003848E-06</v>
+      </c>
+      <c r="T33">
+        <v>4.901375712003849E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H34">
+        <v>16.711339</v>
+      </c>
+      <c r="I34">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J34">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.60839533333333</v>
+      </c>
+      <c r="N34">
+        <v>40.825186</v>
+      </c>
+      <c r="O34">
+        <v>0.1616224589719941</v>
+      </c>
+      <c r="P34">
+        <v>0.1616224589719942</v>
+      </c>
+      <c r="Q34">
+        <v>75.80483588711712</v>
+      </c>
+      <c r="R34">
+        <v>682.2435229840542</v>
+      </c>
+      <c r="S34">
+        <v>0.003235030476580973</v>
+      </c>
+      <c r="T34">
+        <v>0.003235030476580974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H35">
+        <v>16.711339</v>
+      </c>
+      <c r="I35">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J35">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.005178666666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.015536</v>
+      </c>
+      <c r="O35">
+        <v>6.150532964109216E-05</v>
+      </c>
+      <c r="P35">
+        <v>6.150532964109217E-05</v>
+      </c>
+      <c r="Q35">
+        <v>0.02884748474488889</v>
+      </c>
+      <c r="R35">
+        <v>0.2596273627040001</v>
+      </c>
+      <c r="S35">
+        <v>1.231088903897755E-06</v>
+      </c>
+      <c r="T35">
+        <v>1.231088903897756E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H36">
+        <v>16.711339</v>
+      </c>
+      <c r="I36">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J36">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>59.21111933333333</v>
+      </c>
+      <c r="N36">
+        <v>177.633358</v>
+      </c>
+      <c r="O36">
+        <v>0.7032310915965587</v>
+      </c>
+      <c r="P36">
+        <v>0.7032310915965588</v>
+      </c>
+      <c r="Q36">
+        <v>329.8323625829291</v>
+      </c>
+      <c r="R36">
+        <v>2968.491263246362</v>
+      </c>
+      <c r="S36">
+        <v>0.01407585324381421</v>
+      </c>
+      <c r="T36">
+        <v>0.01407585324381422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.570446333333334</v>
+      </c>
+      <c r="H37">
+        <v>16.711339</v>
+      </c>
+      <c r="I37">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="J37">
+        <v>0.02001597115374626</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.28242366666667</v>
+      </c>
+      <c r="N37">
+        <v>33.847271</v>
+      </c>
+      <c r="O37">
+        <v>0.1339976544996382</v>
+      </c>
+      <c r="P37">
+        <v>0.1339976544996382</v>
+      </c>
+      <c r="Q37">
+        <v>62.84813554509656</v>
+      </c>
+      <c r="R37">
+        <v>565.6332199058691</v>
+      </c>
+      <c r="S37">
+        <v>0.002682093187134416</v>
+      </c>
+      <c r="T37">
+        <v>0.002682093187134417</v>
       </c>
     </row>
   </sheetData>
